--- a/biology/Zoologie/Dicellurata/Dicellurata.xlsx
+++ b/biology/Zoologie/Dicellurata/Dicellurata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dicellurata  sont un sous-ordre de diploures.
 </t>
@@ -511,10 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom Dicellura est donné pour la première fois par Haliday en 1864 avec le statut de genre. Celui-ci est désormais considéré comme un synonyme de Japyx Haliday, 1864[1]. En 1896, Orator F. Cook reprend le nom pour définir un ordre dont la monophylie devient discutable selon les auteurs[2]. Puis en 1959, l'entomologiste français Jean Pagés (d) (1925-2009) établit la classification des diploures qui fait désormais consensus parmi les spécialistes[3],[4], créant pour l'occasion le sous-ordre des Dicellurata.
-Le sous-ordre des Dicellurata se compose d'une seule super-famille, les Japygoidea[5], sous-divisée en cinq familles :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom Dicellura est donné pour la première fois par Haliday en 1864 avec le statut de genre. Celui-ci est désormais considéré comme un synonyme de Japyx Haliday, 1864. En 1896, Orator F. Cook reprend le nom pour définir un ordre dont la monophylie devient discutable selon les auteurs. Puis en 1959, l'entomologiste français Jean Pagés (d) (1925-2009) établit la classification des diploures qui fait désormais consensus parmi les spécialistes créant pour l'occasion le sous-ordre des Dicellurata.
+Le sous-ordre des Dicellurata se compose d'une seule super-famille, les Japygoidea, sous-divisée en cinq familles :
 Dinjapygidae Womersley, 1939
 Evalljapyginae Silvestri, 1948
 Iapyginae Haliday, 1864
